--- a/StockingProblemProject/Testes/Problema4/testes_mutacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema4/testes_mutacao/statistic_average_fitness_avaliado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema4\testes_mutacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema4\testes_mutacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD197245-505E-4A96-83DF-50791B9F1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{298B885B-0895-49F4-A942-B011EBB73E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,10 +597,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2307,19 +2307,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="1.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2357,36 +2357,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>100</v>
-      </c>
-      <c r="B2" s="4">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <v>246.6</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>5.1691391933280304</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -2396,7 +2396,7 @@
         <v>253.96</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="J3">
         <v>4.4737456342532402</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>251.36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="J4">
         <v>4.8795491595023401</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>249.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="J5">
         <v>5.0009999000199903</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="J6">
         <v>4.78016736108684</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>249.84</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="J7">
         <v>5.39051017993659</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>251.56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="J8">
         <v>5.4455853679838597</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>252.9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="J9">
         <v>5.5585609648541201</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>253.52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="J10">
         <v>5.4360279616646503</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>255.92</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J11">
         <v>3.9907893955958098</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -2722,7 +2722,7 @@
         <v>253.08</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="J12">
         <v>5.1971145840745097</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>250.32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="J13">
         <v>5.3547735713099902</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>249.3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="J14">
         <v>4.6561786907291198</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>246.6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="J15">
         <v>5.4377936702306</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>248.16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="J16">
         <v>4.7252936416692597</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>249.68</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>100</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="J17">
         <v>5.12234321380362</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>253.4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="J18">
         <v>4.5088801270382</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>255.46</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="J19">
         <v>3.88350357280639</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="2" t="s">
         <v>25</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>254.72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="J20">
         <v>3.6122569122364498</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -3048,7 +3048,7 @@
         <v>256.26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="J21">
         <v>5.4059596742854001</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>254.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="J22">
         <v>4.6370680391816501</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="2" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>258.52</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="J23">
         <v>3.9132595109447998</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="2" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>260.54000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>100</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="J24">
         <v>5.0596442562694</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>259.7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>100</v>
       </c>
@@ -3220,7 +3220,7 @@
       <c r="J25">
         <v>5.1178511115506202</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="2" t="s">
         <v>22</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J26">
         <v>4.1964270516714501</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="2" t="s">
         <v>23</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>261.68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>100</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="J27">
         <v>5.19418906086407</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="2" t="s">
         <v>24</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>261.38</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>100</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="J28">
         <v>3.5902089075707</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="2" t="s">
         <v>25</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>260.92</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>100</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="J29">
         <v>4.9878251773693902</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -3374,7 +3374,7 @@
         <v>257.98</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>100</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="J30">
         <v>3.3955853692699201</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="2" t="s">
         <v>18</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>255.66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>100</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="J31">
         <v>4.1102797958289896</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="2" t="s">
         <v>19</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>253.54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>100</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="J32">
         <v>3.88967864996583</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>255.76</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>100</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="J33">
         <v>3.8794329482541601</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>259.16000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>100</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="J34">
         <v>5.5353410012392104</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="2" t="s">
         <v>22</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>259.48</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J35">
         <v>4.2958584706668299</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="2" t="s">
         <v>23</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>260.56</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>100</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="J36">
         <v>4.5208848691379</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="2" t="s">
         <v>24</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>260.83999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>100</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="J37">
         <v>5.3609327546612597</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="2" t="s">
         <v>25</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>261.68</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>100</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="J38">
         <v>5.0221907570302404</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -3700,7 +3700,7 @@
         <v>258.95999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>100</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="J39">
         <v>4.5852371803430101</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="2" t="s">
         <v>18</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>259.8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>100</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="J40">
         <v>4.9030602688525002</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="2" t="s">
         <v>19</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>260.24</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>100</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="J41">
         <v>3.63433625301787</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="2" t="s">
         <v>20</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>261.22000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>100</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="J42">
         <v>2.85068412841549</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="2" t="s">
         <v>21</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>260.39999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>100</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="J43">
         <v>4.0635452501479499</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="2" t="s">
         <v>22</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>259.83999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>100</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="J44">
         <v>2.9689055222421601</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="2" t="s">
         <v>23</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>260.33999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>100</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="J45">
         <v>3.2424681956805599</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="2" t="s">
         <v>24</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>259.95999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>100</v>
       </c>
@@ -3980,7 +3980,7 @@
       <c r="J46">
         <v>3.2246550203083699</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="2" t="s">
         <v>25</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>259.98</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>100</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="J47">
         <v>5.0409919658733804</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -4026,7 +4026,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>100</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="J48">
         <v>3.5284557528754701</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="2" t="s">
         <v>18</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>100</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="J49">
         <v>3.1041262860908199</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="2" t="s">
         <v>19</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>259.10000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>100</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="J50">
         <v>3.0162228034414098</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="2" t="s">
         <v>20</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>260.74</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="J51">
         <v>2.0730653631759801</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="2" t="s">
         <v>21</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>261.04000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="J52">
         <v>3.30339219591013</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="2" t="s">
         <v>22</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>261.98</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>100</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="J53">
         <v>3.1716872481378098</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="2" t="s">
         <v>23</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>261.74</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>100</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="J54">
         <v>2.8408449447303501</v>
       </c>
-      <c r="L54" s="3"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="2" t="s">
         <v>24</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>263.36</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>100</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="J55">
         <v>2.8722813232690099</v>
       </c>
-      <c r="L55" s="3"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4314,18 +4314,18 @@
         <v>263.5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
     <sortCondition ref="I2:I55"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="L47:L55"/>
     <mergeCell ref="L2:L10"/>
     <mergeCell ref="L11:L19"/>
     <mergeCell ref="L20:L28"/>
     <mergeCell ref="L29:L37"/>
     <mergeCell ref="L38:L46"/>
-    <mergeCell ref="L47:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/StockingProblemProject/Testes/Problema4/testes_mutacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema4/testes_mutacao/statistic_average_fitness_avaliado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema4\testes_mutacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itandmore/Documents/GitHub/IAProject_StockingProblem/StockingProblemProject/Testes/Problema4/testes_mutacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298B885B-0895-49F4-A942-B011EBB73E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ED4690-594C-6A41-BDD3-559D64698399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -687,10 +687,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -735,20 +736,13 @@
           </c:tx>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -768,8 +762,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -793,10 +788,11 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:round/>
@@ -1185,8 +1181,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-50"/>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
         <c:axId val="374566560"/>
         <c:axId val="374569840"/>
       </c:barChart>
@@ -1197,33 +1193,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1240,8 +1211,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1266,39 +1238,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="10800000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1309,8 +1261,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1346,14 +1299,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1421,30 +1371,204 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1460,225 +1584,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1693,10 +1601,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1711,10 +1620,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1737,27 +1647,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="10800000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
-      <a:effectLst/>
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
@@ -1768,27 +1665,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1800,10 +1683,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1818,10 +1702,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1833,13 +1718,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1847,7 +1733,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1860,8 +1746,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1874,10 +1761,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1889,11 +1777,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1902,15 +1791,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1919,8 +1807,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1934,14 +1823,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1953,10 +1841,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2310,16 +2209,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="1.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -2396,7 +2295,7 @@
         <v>253.96</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2432,7 +2331,7 @@
         <v>251.36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2468,7 +2367,7 @@
         <v>249.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -2504,7 +2403,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -2540,7 +2439,7 @@
         <v>249.84</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -2576,7 +2475,7 @@
         <v>251.56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2612,7 +2511,7 @@
         <v>252.9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2648,7 +2547,7 @@
         <v>253.52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2684,7 +2583,7 @@
         <v>255.92</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -2722,7 +2621,7 @@
         <v>253.08</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -2758,7 +2657,7 @@
         <v>250.32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -2794,7 +2693,7 @@
         <v>249.3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -2830,7 +2729,7 @@
         <v>246.6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100</v>
       </c>
@@ -2866,7 +2765,7 @@
         <v>248.16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -2902,7 +2801,7 @@
         <v>249.68</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -2938,7 +2837,7 @@
         <v>253.4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100</v>
       </c>
@@ -2974,7 +2873,7 @@
         <v>255.46</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -3010,7 +2909,7 @@
         <v>254.72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -3048,7 +2947,7 @@
         <v>256.26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3084,7 +2983,7 @@
         <v>254.7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -3120,7 +3019,7 @@
         <v>258.52</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -3156,7 +3055,7 @@
         <v>260.54000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -3192,7 +3091,7 @@
         <v>259.7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>100</v>
       </c>
@@ -3228,7 +3127,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -3264,7 +3163,7 @@
         <v>261.68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>100</v>
       </c>
@@ -3300,7 +3199,7 @@
         <v>261.38</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -3336,7 +3235,7 @@
         <v>260.92</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>100</v>
       </c>
@@ -3374,7 +3273,7 @@
         <v>257.98</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>100</v>
       </c>
@@ -3410,7 +3309,7 @@
         <v>255.66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>100</v>
       </c>
@@ -3446,7 +3345,7 @@
         <v>253.54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>100</v>
       </c>
@@ -3482,7 +3381,7 @@
         <v>255.76</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>100</v>
       </c>
@@ -3518,7 +3417,7 @@
         <v>259.16000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>100</v>
       </c>
@@ -3554,7 +3453,7 @@
         <v>259.48</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3590,7 +3489,7 @@
         <v>260.56</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>100</v>
       </c>
@@ -3626,7 +3525,7 @@
         <v>260.83999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>100</v>
       </c>
@@ -3662,7 +3561,7 @@
         <v>261.68</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>100</v>
       </c>
@@ -3700,7 +3599,7 @@
         <v>258.95999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>100</v>
       </c>
@@ -3736,7 +3635,7 @@
         <v>259.8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>100</v>
       </c>
@@ -3772,7 +3671,7 @@
         <v>260.24</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
@@ -3808,7 +3707,7 @@
         <v>261.22000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>100</v>
       </c>
@@ -3844,7 +3743,7 @@
         <v>260.39999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>100</v>
       </c>
@@ -3880,7 +3779,7 @@
         <v>259.83999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>100</v>
       </c>
@@ -3916,7 +3815,7 @@
         <v>260.33999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>100</v>
       </c>
@@ -3952,7 +3851,7 @@
         <v>259.95999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>100</v>
       </c>
@@ -3988,7 +3887,7 @@
         <v>259.98</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>100</v>
       </c>
@@ -4026,7 +3925,7 @@
         <v>257.5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>100</v>
       </c>
@@ -4062,7 +3961,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>100</v>
       </c>
@@ -4098,7 +3997,7 @@
         <v>259.10000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>100</v>
       </c>
@@ -4134,7 +4033,7 @@
         <v>260.74</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>100</v>
       </c>
@@ -4170,7 +4069,7 @@
         <v>261.04000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>100</v>
       </c>
@@ -4206,7 +4105,7 @@
         <v>261.98</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>100</v>
       </c>
@@ -4242,7 +4141,7 @@
         <v>261.74</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>100</v>
       </c>
@@ -4278,7 +4177,7 @@
         <v>263.36</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>100</v>
       </c>
@@ -4314,7 +4213,7 @@
         <v>263.5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
     <sortCondition ref="I2:I55"/>
